--- a/notebook/20190403_order_linker_n/quotes/quotes.xlsx
+++ b/notebook/20190403_order_linker_n/quotes/quotes.xlsx
@@ -20,6 +20,14 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+  <si>
+    <t>Purification</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -122,10 +130,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:XFC4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -134,12 +142,11 @@
     <col min="2" max="2" style="1" width="11.427884615384617" customWidth="1"/>
     <col min="3" max="3" style="2" width="13.284915865384617" customWidth="1"/>
     <col min="4" max="4" style="2" width="15.284795673076925" customWidth="1"/>
-    <col min="5" max="5" style="1" width="9.142307692307693"/>
-    <col min="6" max="6" style="3" width="15.284795673076925" customWidth="1"/>
-    <col min="7" max="16384" style="0" width="9.142307692307693"/>
+    <col min="5" max="5" style="3" width="15.284795673076925" customWidth="1"/>
+    <col min="6" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="13.5">
+    <row r="1" spans="1:16383" ht="13.5">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Company</t>
@@ -160,21 +167,15 @@
           <t>Yield (nmol)</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>$/nmol</t>
-        </is>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Purification</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -16551,9 +16552,8 @@
       <c r="XFA1" s="4"/>
       <c r="XFB1" s="4"/>
       <c r="XFC1" s="4"/>
-      <c r="XFD1" s="4"/>
     </row>
-    <row r="2" spans="1:16384" ht="13.5">
+    <row r="2" spans="1:16383" ht="13.5">
       <c r="A2" t="inlineStr">
         <is>
           <t>Midland CRC</t>
@@ -16569,22 +16569,18 @@
         <f>C2*1000/Constants!$B$1</f>
         <v>2.6565767352189971</v>
       </c>
-      <c r="E2">
-        <f>B2/D2</f>
-        <v>804.9833349999999</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>HPLC+PAGE</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Midland's scientist recommended HPLC+PAGE purification.  Without PAGE, the yield would be 5-10x more.</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:16384" ht="13.5">
+    <row r="3" spans="1:16383" ht="13.5">
       <c r="A3" t="inlineStr">
         <is>
           <t>Biosynthesis</t>
@@ -16600,17 +16596,13 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <f>B3/D3</f>
-        <v>1427.5</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Multiple HPLC</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5">
+    <row r="4" spans="1:16383" ht="13.5">
       <c r="A4" t="inlineStr">
         <is>
           <t>BEX</t>
@@ -16626,16 +16618,12 @@
         <f>C4*1000/Constants!$B$1</f>
         <v>5.0601461623218986</v>
       </c>
-      <c r="E4">
-        <f>B4/D4</f>
-        <v>573.10597500000006</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>HPLC</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Price doesn't include the delivery fee or the custom import tax.  The import tax is free if the lab has a "tax exemption number".  The synthesis will begin with 200 nmol, but the final yield will be ~5 nmol.  BEX also notes that dT-FITC would give better yield than iCy5.</t>
         </is>
